--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.2_rules1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.2_rules1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F1379-E4DE-4F4D-81F2-EA6641CEF435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA70A9-8601-41E1-9014-E145B9C3D318}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -91,19 +91,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F4FD"/>
+        <fgColor rgb="FFDFF7FD"/>
         <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBFEFF"/>
+        <fgColor rgb="FFEFFAFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBFEFF"/>
+        <fgColor rgb="FFEFFAFD"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,14 +143,17 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -160,10 +163,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEFFAFD"/>
+      <color rgb="FFDFF7FD"/>
       <color rgb="FFFBFEFF"/>
       <color rgb="FFE2F4FD"/>
       <color rgb="FFCAE8FF"/>
-      <color rgb="FFDFF7FD"/>
       <color rgb="FFEFFAFF"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
@@ -481,17 +485,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,25 +509,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>43710</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
         <v>50</v>
       </c>
     </row>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.2_rules1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.2_rules1.xlsx
@@ -5,20 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA70A9-8601-41E1-9014-E145B9C3D318}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE41BD-DB40-480D-81BC-7518DD304B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -485,7 +491,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,7 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43710</v>
+        <v>43709</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
